--- a/finalz2f.xlsx
+++ b/finalz2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karthik.varanasi@ibm.com/Documents/chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B819DD-E30E-6247-B604-E10BA499256E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B8234F-2D2A-8540-83AA-E6E8529D8868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{621D8022-24E3-F049-97F8-6C4F75B1BE12}"/>
+    <workbookView xWindow="1120" yWindow="560" windowWidth="28800" windowHeight="16280" xr2:uid="{621D8022-24E3-F049-97F8-6C4F75B1BE12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="170">
   <si>
     <t>Topic</t>
   </si>
@@ -400,9 +400,6 @@
   </si>
   <si>
     <t>Go to the Fidelity NetBenefits page and login. Once logged in, click menu and click “Retirement Savings” under IBM. On the next screen you will see a summary of your 401k. Click “contributions” on the left-hand side of the screen. Then click on “contribution amount”. You will then be directed to a screen where you can edit your contributions. Be sure to click the “Change Contribution Amount” button near the bottom of the screen if you want to save any changes.</t>
-  </si>
-  <si>
-    <t>Where Do I book my flight?</t>
   </si>
   <si>
     <t>Listed above is the Travel link. Please click that and login and you will be able to book your flight.</t>
@@ -493,6 +490,81 @@
   </si>
   <si>
     <t>July 23</t>
+  </si>
+  <si>
+    <t>Where do I book my flight?</t>
+  </si>
+  <si>
+    <t>Where should I book the ticket for my next trip?</t>
+  </si>
+  <si>
+    <t>You need to book your trip through SAP Concur, the travel and expense tool that we use here at IBM.</t>
+  </si>
+  <si>
+    <t>When should I book my ticket for my next trip?</t>
+  </si>
+  <si>
+    <t>It is ideal to book your trip at least three weeks in advance.</t>
+  </si>
+  <si>
+    <t>Are ride services covered?</t>
+  </si>
+  <si>
+    <t>Work related ride services are covered. Any personal or extra ride service needs to be covered by the employee.</t>
+  </si>
+  <si>
+    <t>Are we allowed to travel on Sundays?</t>
+  </si>
+  <si>
+    <t>Sunday travel is not allowed unless approved by your summit manager.</t>
+  </si>
+  <si>
+    <t>Do we get overtime for travel outside of business hours?</t>
+  </si>
+  <si>
+    <t>You get overtime for travel outside of business business hours if there was no other option but to travel during that time.</t>
+  </si>
+  <si>
+    <t>How do I pay for my next trip?</t>
+  </si>
+  <si>
+    <t>You can buy your ticket using your corporate card in Concur.</t>
+  </si>
+  <si>
+    <t>How do I book where I'm going to stay?</t>
+  </si>
+  <si>
+    <t>Your manager will book hotel stays for you unless stated otherwise.</t>
+  </si>
+  <si>
+    <t>Are meals covered?</t>
+  </si>
+  <si>
+    <t>Depending on the location, your meals may or may not be provided. If they are not provided, you will be compensated with a per diem rate appropriate for the city you will be working in.</t>
+  </si>
+  <si>
+    <t>How do I file an expense report?</t>
+  </si>
+  <si>
+    <t>You can file expense reports in Concur.</t>
+  </si>
+  <si>
+    <t>How do I book a side trip?</t>
+  </si>
+  <si>
+    <t>You must first make a business case to your manager about the side trip and what the cost difference will be. You need to include specific flight details. Once approved, you can purchase those flights in Concur.</t>
+  </si>
+  <si>
+    <t>How do I know which flight to pick?</t>
+  </si>
+  <si>
+    <t>You can pick any flight that is in policy. Just be sure to be on time to your training!</t>
+  </si>
+  <si>
+    <t>Where do I book Leros?</t>
+  </si>
+  <si>
+    <t>Leros has to be booked over the phone. Be sure to have your flight info ready and mention IBM Rideshare!</t>
   </si>
 </sst>
 </file>
@@ -560,7 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,6 +648,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -893,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B08F494-08AE-B242-8264-589D4823549E}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1375,7 +1450,7 @@
         <v>105</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="51" x14ac:dyDescent="0.2">
@@ -1407,7 +1482,7 @@
         <v>112</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="34" x14ac:dyDescent="0.2">
@@ -1452,130 +1527,130 @@
     </row>
     <row r="55" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D62" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -1586,10 +1661,106 @@
         <v>65</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
